--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_AnhTuanNB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang4\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang4\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mắt cam" sheetId="49" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">VNSH01!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="6">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -348,16 +348,10 @@
     <t>VNSH01</t>
   </si>
   <si>
-    <t>VW21051100S0611/00BD000879</t>
-  </si>
-  <si>
     <t>H5_20_V3327_T220515.04</t>
   </si>
   <si>
     <t>Thiết bị lỗi màn hình</t>
-  </si>
-  <si>
-    <t>WM21051100S0546/00BD000DE6</t>
   </si>
   <si>
     <t>Dây nguồn LE</t>
@@ -379,6 +373,24 @@
   </si>
   <si>
     <t>Mắt camera minidome</t>
+  </si>
+  <si>
+    <t>VW21051100S0611 / 00BD000879</t>
+  </si>
+  <si>
+    <t>WM21051100S0546 / 00BD000DE6</t>
+  </si>
+  <si>
+    <t>ID TB mới : WM21051100S0663/00BD000CD6</t>
+  </si>
+  <si>
+    <t>125.212.203.111,21083</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khởi động</t>
+  </si>
+  <si>
+    <t>ID TB mới: WM21051100S1133/00BD0008AB</t>
   </si>
 </sst>
 </file>
@@ -499,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -623,11 +635,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -860,51 +917,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -922,12 +934,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,6 +1045,75 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1379,43 +1454,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1460,133 +1535,133 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="93">
         <v>45022</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="111"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="94"/>
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="94"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1595,29 +1670,29 @@
       <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="95"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1627,26 +1702,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="122"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="105"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1750,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1779,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1808,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1837,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1793,7 +1868,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1897,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1851,7 +1926,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1955,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3108,13 +3183,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3126,6 +3194,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3169,43 +3244,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3250,145 +3325,145 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="93">
         <v>45022</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="111"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="94"/>
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112" t="s">
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="94"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3397,145 +3472,145 @@
       <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="95"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="78">
         <v>3</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="95"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93">
+      <c r="A9" s="78">
         <v>4</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="95"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="78">
         <v>5</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="95"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+      <c r="A11" s="78">
         <v>6</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="95"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3545,26 +3620,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="103"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3595,7 +3670,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3624,7 +3699,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3653,7 +3728,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3682,7 +3757,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4910,13 +4985,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4928,6 +4996,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4938,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4971,43 +5046,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5052,114 +5127,114 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="93">
         <v>45022</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="112" t="s">
-        <v>99</v>
+      <c r="E6" s="95" t="s">
+        <v>108</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>72</v>
@@ -5167,36 +5242,38 @@
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="113">
+      <c r="H6" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="123" t="s">
+      <c r="J6" s="94"/>
+      <c r="K6" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" s="115" t="s">
+      <c r="M6" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="111"/>
-      <c r="O6" s="115" t="s">
+      <c r="N6" s="94"/>
+      <c r="O6" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="115" t="s">
+      <c r="P6" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="94"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5204,44 +5281,58 @@
       </c>
       <c r="W6" s="64"/>
     </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="93">
         <v>45022</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="113">
-        <v>125212203111.21001</v>
-      </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="95"/>
+      <c r="H7" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="140" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="143"/>
+      <c r="O7" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="80"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5251,26 +5342,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="122"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="105"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5299,7 +5390,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5328,7 +5419,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5357,7 +5448,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5386,7 +5477,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5417,7 +5508,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5446,7 +5537,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5475,7 +5566,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5504,7 +5595,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5623,7 +5714,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6060,7 +6151,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -6156,7 +6247,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6732,13 +6823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6750,6 +6834,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6793,43 +6884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6874,133 +6965,133 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="93">
         <v>45022</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="111"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="94"/>
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7012,26 +7103,26 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="122"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="105"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7060,7 +7151,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7089,7 +7180,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7118,7 +7209,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7147,7 +7238,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7176,7 +7267,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7207,7 +7298,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7236,7 +7327,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7265,7 +7356,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7294,7 +7385,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8522,13 +8613,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8540,6 +8624,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8583,43 +8674,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -8664,145 +8755,145 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="99">
         <v>45022</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="116" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="99">
         <v>210920220001</v>
       </c>
-      <c r="F6" s="117"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="116" t="s">
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="117"/>
-      <c r="O6" s="116" t="s">
+      <c r="N6" s="100"/>
+      <c r="O6" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="116" t="s">
+      <c r="P6" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="116" t="s">
+      <c r="Q6" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="116" t="s">
+      <c r="R6" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="94"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8811,245 +8902,245 @@
       <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="99">
         <v>45022</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="116" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="99">
         <v>210920220004</v>
       </c>
-      <c r="F7" s="117"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="H7" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="116" t="s">
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="117"/>
-      <c r="O7" s="116" t="s">
+      <c r="N7" s="100"/>
+      <c r="O7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="116" t="s">
+      <c r="P7" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="116" t="s">
+      <c r="Q7" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="116" t="s">
+      <c r="R7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="95"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="78">
         <v>3</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="99">
         <v>45022</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="116" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="99">
         <v>210920220008</v>
       </c>
-      <c r="F8" s="117"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="116" t="s">
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="117"/>
-      <c r="O8" s="116" t="s">
+      <c r="N8" s="100"/>
+      <c r="O8" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="116" t="s">
+      <c r="P8" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="116" t="s">
+      <c r="Q8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="116" t="s">
+      <c r="R8" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="95"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93">
+      <c r="A9" s="78">
         <v>4</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="99">
         <v>45022</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="116" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="99">
         <v>210920220013</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="116" t="s">
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="116" t="s">
+      <c r="N9" s="100"/>
+      <c r="O9" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="116" t="s">
+      <c r="P9" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="116" t="s">
+      <c r="Q9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="116" t="s">
+      <c r="R9" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="95"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="78">
         <v>5</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="99">
         <v>45022</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="116" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="99">
         <v>210920220028</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="116" t="s">
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="116" t="s">
+      <c r="N10" s="100"/>
+      <c r="O10" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="116" t="s">
+      <c r="P10" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="116" t="s">
+      <c r="Q10" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="116" t="s">
+      <c r="R10" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="95"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+      <c r="A11" s="78">
         <v>6</v>
       </c>
-      <c r="B11" s="116">
+      <c r="B11" s="99">
         <v>45022</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="116" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="99">
         <v>210920220010</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="116" t="s">
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="116" t="s">
+      <c r="N11" s="100"/>
+      <c r="O11" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="116" t="s">
+      <c r="P11" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="116" t="s">
+      <c r="Q11" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="116" t="s">
+      <c r="R11" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="95"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9059,26 +9150,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="103"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9109,7 +9200,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9138,7 +9229,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9167,7 +9258,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9196,7 +9287,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10424,13 +10515,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10442,6 +10526,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10485,43 +10576,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -10566,74 +10657,74 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="77" t="s">
@@ -10648,32 +10739,32 @@
       <c r="K5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="93">
         <v>45022</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
@@ -10690,7 +10781,7 @@
       <c r="R6" s="62"/>
       <c r="S6" s="69"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10699,22 +10790,22 @@
       <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="93">
         <v>45022</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="128"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="53"/>
       <c r="J7" s="39"/>
       <c r="K7" s="66"/>
@@ -10727,29 +10818,29 @@
       <c r="R7" s="62"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="78">
         <v>3</v>
       </c>
-      <c r="B8" s="110">
+      <c r="B8" s="93">
         <v>45022</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="112" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="53"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
@@ -10762,29 +10853,29 @@
       <c r="R8" s="62"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93">
+      <c r="A9" s="78">
         <v>4</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="93">
         <v>45022</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112" t="s">
+      <c r="C9" s="94"/>
+      <c r="D9" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="130"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="47"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
@@ -10797,29 +10888,29 @@
       <c r="R9" s="62"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="78">
         <v>5</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="93">
         <v>45022</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="130"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="47"/>
       <c r="J10" s="39"/>
       <c r="K10" s="57"/>
@@ -10832,29 +10923,29 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+      <c r="A11" s="78">
         <v>6</v>
       </c>
-      <c r="B11" s="110">
+      <c r="B11" s="93">
         <v>45022</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="53"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -10867,29 +10958,29 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93">
+      <c r="A12" s="78">
         <v>7</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="93">
         <v>45022</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="130"/>
+      <c r="H12" s="113"/>
       <c r="I12" s="53"/>
       <c r="J12" s="1"/>
       <c r="K12" s="39"/>
@@ -10902,7 +10993,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10911,22 +11002,22 @@
       <c r="W12" s="64"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93">
+      <c r="A13" s="78">
         <v>8</v>
       </c>
-      <c r="B13" s="110">
+      <c r="B13" s="93">
         <v>45022</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="130"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="47"/>
       <c r="J13" s="1"/>
       <c r="K13" s="39"/>
@@ -10939,29 +11030,29 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+      <c r="A14" s="78">
         <v>9</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="93">
         <v>45022</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="129"/>
+      <c r="H14" s="112"/>
       <c r="I14" s="47"/>
       <c r="J14" s="1"/>
       <c r="K14" s="39"/>
@@ -10974,29 +11065,29 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="W14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93">
+      <c r="A15" s="78">
         <v>10</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="93">
         <v>45022</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="130"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="47"/>
       <c r="J15" s="1"/>
       <c r="K15" s="39"/>
@@ -11009,29 +11100,29 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93">
+      <c r="A16" s="78">
         <v>11</v>
       </c>
-      <c r="B16" s="110">
+      <c r="B16" s="93">
         <v>45022</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="130"/>
+      <c r="H16" s="113"/>
       <c r="I16" s="53"/>
       <c r="J16" s="1"/>
       <c r="K16" s="39"/>
@@ -11044,29 +11135,29 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="W16" s="64"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+      <c r="A17" s="78">
         <v>12</v>
       </c>
-      <c r="B17" s="110">
+      <c r="B17" s="93">
         <v>45022</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="130"/>
+      <c r="H17" s="113"/>
       <c r="I17" s="53"/>
       <c r="J17" s="1"/>
       <c r="K17" s="39"/>
@@ -11084,22 +11175,22 @@
       <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93">
+      <c r="A18" s="78">
         <v>13</v>
       </c>
-      <c r="B18" s="110">
+      <c r="B18" s="93">
         <v>45022</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="130"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="53"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -11117,22 +11208,22 @@
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93">
+      <c r="A19" s="78">
         <v>14</v>
       </c>
-      <c r="B19" s="110">
+      <c r="B19" s="93">
         <v>45022</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="130"/>
+      <c r="H19" s="113"/>
       <c r="I19" s="53"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -11154,22 +11245,22 @@
       <c r="W19" s="46"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93">
+      <c r="A20" s="78">
         <v>15</v>
       </c>
-      <c r="B20" s="110">
+      <c r="B20" s="93">
         <v>45022</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="130"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="53"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -11192,22 +11283,22 @@
       <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
+      <c r="A21" s="78">
         <v>16</v>
       </c>
-      <c r="B21" s="110">
+      <c r="B21" s="93">
         <v>45022</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="130"/>
+      <c r="H21" s="113"/>
       <c r="I21" s="53"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -11230,22 +11321,22 @@
       <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93">
+      <c r="A22" s="78">
         <v>17</v>
       </c>
-      <c r="B22" s="110">
+      <c r="B22" s="93">
         <v>45022</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="131"/>
+      <c r="H22" s="114"/>
       <c r="I22" s="53"/>
       <c r="J22" s="9"/>
       <c r="K22" s="1"/>
@@ -11268,22 +11359,22 @@
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
+      <c r="A23" s="78">
         <v>18</v>
       </c>
-      <c r="B23" s="110">
+      <c r="B23" s="93">
         <v>45022</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="131"/>
+      <c r="H23" s="114"/>
       <c r="I23" s="53"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -11301,22 +11392,22 @@
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="A24" s="78">
         <v>19</v>
       </c>
-      <c r="B24" s="110">
+      <c r="B24" s="93">
         <v>45022</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="94"/>
+      <c r="D24" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="131"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="53"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -11334,22 +11425,22 @@
       <c r="W24" s="13"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93">
+      <c r="A25" s="78">
         <v>20</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="93">
         <v>45022</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="131"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="53"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -11371,22 +11462,22 @@
       <c r="W25" s="46"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93">
+      <c r="A26" s="78">
         <v>21</v>
       </c>
-      <c r="B26" s="110">
+      <c r="B26" s="93">
         <v>45022</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="112" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="131"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="53"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -11409,22 +11500,22 @@
       <c r="W26" s="13"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
+      <c r="A27" s="78">
         <v>22</v>
       </c>
-      <c r="B27" s="110">
+      <c r="B27" s="93">
         <v>45022</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="131"/>
+      <c r="H27" s="114"/>
       <c r="I27" s="53"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -11447,22 +11538,22 @@
       <c r="W27" s="13"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93">
+      <c r="A28" s="78">
         <v>23</v>
       </c>
-      <c r="B28" s="110">
+      <c r="B28" s="93">
         <v>45022</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="94"/>
+      <c r="D28" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="130"/>
+      <c r="H28" s="113"/>
       <c r="I28" s="53"/>
       <c r="J28" s="1"/>
       <c r="K28" s="9"/>
@@ -11485,22 +11576,22 @@
       <c r="W28" s="13"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93">
+      <c r="A29" s="78">
         <v>24</v>
       </c>
-      <c r="B29" s="110">
+      <c r="B29" s="93">
         <v>45022</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112" t="s">
+      <c r="C29" s="94"/>
+      <c r="D29" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="130"/>
+      <c r="H29" s="113"/>
       <c r="I29" s="53"/>
       <c r="J29" s="1"/>
       <c r="K29" s="9"/>
@@ -11523,22 +11614,22 @@
       <c r="W29" s="13"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93">
+      <c r="A30" s="78">
         <v>25</v>
       </c>
-      <c r="B30" s="110">
+      <c r="B30" s="93">
         <v>45022</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112" t="s">
+      <c r="C30" s="94"/>
+      <c r="D30" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="130"/>
+      <c r="H30" s="113"/>
       <c r="I30" s="53"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -11561,22 +11652,22 @@
       <c r="W30" s="13"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93">
+      <c r="A31" s="78">
         <v>26</v>
       </c>
-      <c r="B31" s="110">
+      <c r="B31" s="93">
         <v>45022</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112" t="s">
+      <c r="C31" s="94"/>
+      <c r="D31" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
       <c r="G31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="130"/>
+      <c r="H31" s="113"/>
       <c r="I31" s="53"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -11602,12 +11693,12 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
       <c r="H32" s="1"/>
       <c r="I32" s="53"/>
       <c r="J32" s="1"/>
@@ -12362,13 +12453,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12380,6 +12464,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12423,43 +12514,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -12504,113 +12595,113 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="96" t="s">
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="93">
         <v>45022</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="95" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -12619,36 +12710,36 @@
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="113">
+      <c r="H6" s="94"/>
+      <c r="I6" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="114" t="s">
+      <c r="J6" s="94"/>
+      <c r="K6" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="112" t="s">
+      <c r="M6" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112" t="s">
+      <c r="N6" s="94"/>
+      <c r="O6" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="94"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12657,17 +12748,17 @@
       <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="93">
         <v>45022</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="95" t="s">
         <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -12676,53 +12767,53 @@
       <c r="G7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="113">
+      <c r="H7" s="94"/>
+      <c r="I7" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="114" t="s">
+      <c r="J7" s="94"/>
+      <c r="K7" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="115" t="s">
+      <c r="M7" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="115" t="s">
+      <c r="N7" s="94"/>
+      <c r="O7" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="115" t="s">
+      <c r="P7" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="114" t="s">
+      <c r="Q7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="114" t="s">
+      <c r="R7" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="95"/>
+      <c r="S7" s="80"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+      <c r="A8" s="78">
         <v>3</v>
       </c>
-      <c r="B8" s="110">
+      <c r="B8" s="93">
         <v>45022</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="95" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -12731,53 +12822,53 @@
       <c r="G8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="113">
+      <c r="H8" s="94"/>
+      <c r="I8" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="114" t="s">
+      <c r="J8" s="94"/>
+      <c r="K8" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="112" t="s">
+      <c r="M8" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112" t="s">
+      <c r="N8" s="94"/>
+      <c r="O8" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="112" t="s">
+      <c r="P8" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="112" t="s">
+      <c r="R8" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="95"/>
+      <c r="S8" s="80"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93">
+      <c r="A9" s="78">
         <v>4</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="93">
         <v>45022</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="95" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -12786,55 +12877,55 @@
       <c r="G9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="112" t="s">
+      <c r="H9" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="114" t="s">
+      <c r="J9" s="94"/>
+      <c r="K9" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="115" t="s">
+      <c r="M9" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="111"/>
-      <c r="O9" s="115" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="115" t="s">
+      <c r="P9" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="114" t="s">
+      <c r="Q9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="114" t="s">
+      <c r="R9" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="95"/>
+      <c r="S9" s="80"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93">
+      <c r="A10" s="78">
         <v>5</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="93">
         <v>45022</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="95" t="s">
         <v>84</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -12843,53 +12934,53 @@
       <c r="G10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="113">
+      <c r="H10" s="94"/>
+      <c r="I10" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="114" t="s">
+      <c r="J10" s="94"/>
+      <c r="K10" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="112" t="s">
+      <c r="M10" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="112" t="s">
+      <c r="P10" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="112" t="s">
+      <c r="Q10" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="112" t="s">
+      <c r="R10" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="95"/>
+      <c r="S10" s="80"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93">
+      <c r="A11" s="78">
         <v>6</v>
       </c>
-      <c r="B11" s="110">
+      <c r="B11" s="93">
         <v>45022</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="95" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -12898,24 +12989,24 @@
       <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="113">
+      <c r="H11" s="94"/>
+      <c r="I11" s="96">
         <v>125212203111.21001</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="114" t="s">
+      <c r="J11" s="94"/>
+      <c r="K11" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="95"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="80"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12925,26 +13016,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="103"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12975,7 +13066,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13004,7 +13095,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13033,7 +13124,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13062,7 +13153,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14290,13 +14381,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14308,6 +14392,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14351,43 +14442,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -14432,58 +14523,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="129"/>
+      <c r="M4" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="128" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="129" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -14508,23 +14599,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="129"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="128"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14550,7 +14641,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="121" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14581,7 +14672,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="122"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14610,7 +14701,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14639,7 +14730,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="122"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -14668,7 +14759,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14697,7 +14788,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="122"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14726,7 +14817,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="121" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -14757,7 +14848,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="122"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14786,7 +14877,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="122"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14815,7 +14906,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="122"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14844,7 +14935,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16075,6 +16166,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16086,13 +16184,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
